--- a/input/tool/REACH_SOM_DSA_Survey_Tool_v7.xlsx
+++ b/input/tool/REACH_SOM_DSA_Survey_Tool_v7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/assil_benamor_reach-initiative_org/Documents/DSA 2021/SOM2103_DSA_21/input/tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_1D7969E1AA86C31E290A98B8C4D3ED57592CEB73" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_1D7969E1AA86C31E290A98B8C4D3ED57592CEB73" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFE67C2C-5F08-8344-BFF3-C3527493D04D}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">settings!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$AB$424</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -9237,19 +9246,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE424"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C386" sqref="C386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
     <col min="4" max="4" width="46.5" style="18" customWidth="1"/>
     <col min="5" max="5" width="45.83203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="47.1640625" customWidth="1"/>
     <col min="8" max="8" width="23.5" customWidth="1"/>
     <col min="9" max="9" width="14.83203125" customWidth="1"/>
@@ -21930,9 +21939,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I839"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A736" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B756" sqref="B756"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B447" sqref="B447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/input/tool/REACH_SOM_DSA_Survey_Tool_v7.xlsx
+++ b/input/tool/REACH_SOM_DSA_Survey_Tool_v7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="744" windowWidth="30240" windowHeight="18900"/>
+    <workbookView xWindow="0" yWindow="744" windowWidth="30240" windowHeight="18900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -8880,7 +8880,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -8951,6 +8951,8 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9245,16 +9247,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C233" sqref="C233"/>
+    <sheetView zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B304" sqref="B304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.21875" customWidth="1"/>
     <col min="4" max="4" width="46.44140625" style="18" customWidth="1"/>
     <col min="5" max="5" width="45.77734375" style="18" customWidth="1"/>
     <col min="6" max="6" width="29.33203125" hidden="1" customWidth="1"/>
@@ -21938,9 +21940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I839"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A555" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B559" sqref="B559"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A604" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B601" sqref="B601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26113,10 +26115,10 @@
       <c r="B230" t="s">
         <v>2381</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="39" t="s">
         <v>1320</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="39" t="s">
         <v>1321</v>
       </c>
       <c r="E230" t="s">
@@ -29390,10 +29392,10 @@
       <c r="B433" t="s">
         <v>725</v>
       </c>
-      <c r="C433" t="s">
+      <c r="C433" s="39" t="s">
         <v>1657</v>
       </c>
-      <c r="D433" t="s">
+      <c r="D433" s="39" t="s">
         <v>1658</v>
       </c>
       <c r="E433" t="s">
@@ -29407,10 +29409,10 @@
       <c r="B434" t="s">
         <v>725</v>
       </c>
-      <c r="C434" t="s">
+      <c r="C434" s="39" t="s">
         <v>1659</v>
       </c>
-      <c r="D434" t="s">
+      <c r="D434" s="39" t="s">
         <v>1660</v>
       </c>
       <c r="E434" t="s">
@@ -29424,10 +29426,10 @@
       <c r="B435" t="s">
         <v>725</v>
       </c>
-      <c r="C435" t="s">
+      <c r="C435" s="39" t="s">
         <v>1662</v>
       </c>
-      <c r="D435" t="s">
+      <c r="D435" s="39" t="s">
         <v>1663</v>
       </c>
       <c r="E435" t="s">
@@ -29441,10 +29443,10 @@
       <c r="B436" t="s">
         <v>725</v>
       </c>
-      <c r="C436" t="s">
+      <c r="C436" s="39" t="s">
         <v>1665</v>
       </c>
-      <c r="D436" t="s">
+      <c r="D436" s="39" t="s">
         <v>1666</v>
       </c>
       <c r="E436" t="s">
@@ -29458,10 +29460,10 @@
       <c r="B437" t="s">
         <v>725</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C437" s="39" t="s">
         <v>1668</v>
       </c>
-      <c r="D437" t="s">
+      <c r="D437" s="39" t="s">
         <v>1669</v>
       </c>
       <c r="E437" t="s">
@@ -29475,10 +29477,10 @@
       <c r="B438" t="s">
         <v>725</v>
       </c>
-      <c r="C438" t="s">
+      <c r="C438" s="39" t="s">
         <v>1671</v>
       </c>
-      <c r="D438" t="s">
+      <c r="D438" s="39" t="s">
         <v>1672</v>
       </c>
       <c r="E438" t="s">
@@ -29492,10 +29494,10 @@
       <c r="B439" t="s">
         <v>725</v>
       </c>
-      <c r="C439" t="s">
+      <c r="C439" s="39" t="s">
         <v>1673</v>
       </c>
-      <c r="D439" t="s">
+      <c r="D439" s="39" t="s">
         <v>1674</v>
       </c>
       <c r="E439" t="s">
@@ -29509,10 +29511,10 @@
       <c r="B440" t="s">
         <v>725</v>
       </c>
-      <c r="C440" t="s">
+      <c r="C440" s="39" t="s">
         <v>1676</v>
       </c>
-      <c r="D440" t="s">
+      <c r="D440" s="39" t="s">
         <v>1677</v>
       </c>
       <c r="E440" t="s">
@@ -29526,10 +29528,10 @@
       <c r="B441" t="s">
         <v>725</v>
       </c>
-      <c r="C441" t="s">
+      <c r="C441" s="39" t="s">
         <v>1679</v>
       </c>
-      <c r="D441" t="s">
+      <c r="D441" s="39" t="s">
         <v>1680</v>
       </c>
       <c r="E441" t="s">
@@ -29543,10 +29545,10 @@
       <c r="B442" t="s">
         <v>725</v>
       </c>
-      <c r="C442" t="s">
+      <c r="C442" s="39" t="s">
         <v>1681</v>
       </c>
-      <c r="D442" t="s">
+      <c r="D442" s="39" t="s">
         <v>1682</v>
       </c>
       <c r="E442" t="s">
@@ -29560,10 +29562,10 @@
       <c r="B443" t="s">
         <v>725</v>
       </c>
-      <c r="C443" t="s">
+      <c r="C443" s="39" t="s">
         <v>1684</v>
       </c>
-      <c r="D443" t="s">
+      <c r="D443" s="39" t="s">
         <v>1685</v>
       </c>
       <c r="E443" t="s">
@@ -29577,10 +29579,10 @@
       <c r="B444" t="s">
         <v>725</v>
       </c>
-      <c r="C444" t="s">
+      <c r="C444" s="39" t="s">
         <v>1687</v>
       </c>
-      <c r="D444" t="s">
+      <c r="D444" s="39" t="s">
         <v>1688</v>
       </c>
       <c r="E444" t="s">
@@ -29594,10 +29596,10 @@
       <c r="B445" t="s">
         <v>725</v>
       </c>
-      <c r="C445" t="s">
+      <c r="C445" s="39" t="s">
         <v>1689</v>
       </c>
-      <c r="D445" t="s">
+      <c r="D445" s="39" t="s">
         <v>1690</v>
       </c>
       <c r="E445" t="s">
@@ -29611,10 +29613,10 @@
       <c r="B446" t="s">
         <v>725</v>
       </c>
-      <c r="C446" t="s">
+      <c r="C446" s="39" t="s">
         <v>1692</v>
       </c>
-      <c r="D446" t="s">
+      <c r="D446" s="39" t="s">
         <v>1693</v>
       </c>
       <c r="E446" t="s">
@@ -29628,10 +29630,10 @@
       <c r="B447" t="s">
         <v>725</v>
       </c>
-      <c r="C447" t="s">
+      <c r="C447" s="39" t="s">
         <v>1695</v>
       </c>
-      <c r="D447" t="s">
+      <c r="D447" s="39" t="s">
         <v>1696</v>
       </c>
       <c r="E447" t="s">
@@ -29645,10 +29647,10 @@
       <c r="B448" t="s">
         <v>725</v>
       </c>
-      <c r="C448" t="s">
+      <c r="C448" s="39" t="s">
         <v>1698</v>
       </c>
-      <c r="D448" t="s">
+      <c r="D448" s="39" t="s">
         <v>1699</v>
       </c>
       <c r="E448" t="s">
@@ -31232,10 +31234,10 @@
       <c r="B547" t="s">
         <v>2397</v>
       </c>
-      <c r="C547" t="s">
+      <c r="C547" s="38" t="s">
         <v>1888</v>
       </c>
-      <c r="D547" t="s">
+      <c r="D547" s="38" t="s">
         <v>1889</v>
       </c>
       <c r="E547" t="s">
@@ -31249,10 +31251,10 @@
       <c r="B548" t="s">
         <v>2397</v>
       </c>
-      <c r="C548" t="s">
+      <c r="C548" s="38" t="s">
         <v>1891</v>
       </c>
-      <c r="D548" t="s">
+      <c r="D548" s="38" t="s">
         <v>1892</v>
       </c>
       <c r="E548" t="s">
@@ -31283,10 +31285,10 @@
       <c r="B550" t="s">
         <v>2397</v>
       </c>
-      <c r="C550" t="s">
+      <c r="C550" s="38" t="s">
         <v>1895</v>
       </c>
-      <c r="D550" t="s">
+      <c r="D550" s="38" t="s">
         <v>1896</v>
       </c>
       <c r="E550" t="s">
@@ -33689,10 +33691,10 @@
       <c r="B700" t="s">
         <v>750</v>
       </c>
-      <c r="C700" t="s">
+      <c r="C700" s="39" t="s">
         <v>1837</v>
       </c>
-      <c r="D700" t="s">
+      <c r="D700" s="39" t="s">
         <v>2190</v>
       </c>
       <c r="E700" t="s">
@@ -33706,10 +33708,10 @@
       <c r="B701" t="s">
         <v>750</v>
       </c>
-      <c r="C701" t="s">
+      <c r="C701" s="39" t="s">
         <v>2192</v>
       </c>
-      <c r="D701" t="s">
+      <c r="D701" s="39" t="s">
         <v>1703</v>
       </c>
       <c r="E701" t="s">
@@ -33723,10 +33725,10 @@
       <c r="B702" t="s">
         <v>750</v>
       </c>
-      <c r="C702" t="s">
+      <c r="C702" s="39" t="s">
         <v>2193</v>
       </c>
-      <c r="D702" t="s">
+      <c r="D702" s="39" t="s">
         <v>1706</v>
       </c>
       <c r="E702" t="s">
@@ -33740,10 +33742,10 @@
       <c r="B703" t="s">
         <v>750</v>
       </c>
-      <c r="C703" t="s">
+      <c r="C703" s="39" t="s">
         <v>2194</v>
       </c>
-      <c r="D703" t="s">
+      <c r="D703" s="39" t="s">
         <v>2195</v>
       </c>
       <c r="E703" t="s">
@@ -33757,10 +33759,10 @@
       <c r="B704" t="s">
         <v>750</v>
       </c>
-      <c r="C704" t="s">
+      <c r="C704" s="39" t="s">
         <v>2197</v>
       </c>
-      <c r="D704" t="s">
+      <c r="D704" s="39" t="s">
         <v>2198</v>
       </c>
       <c r="E704" t="s">
@@ -33774,10 +33776,10 @@
       <c r="B705" t="s">
         <v>750</v>
       </c>
-      <c r="C705" t="s">
+      <c r="C705" s="39" t="s">
         <v>2200</v>
       </c>
-      <c r="D705" t="s">
+      <c r="D705" s="39" t="s">
         <v>2201</v>
       </c>
       <c r="E705" t="s">
@@ -33791,10 +33793,10 @@
       <c r="B706" t="s">
         <v>750</v>
       </c>
-      <c r="C706" t="s">
+      <c r="C706" s="39" t="s">
         <v>2203</v>
       </c>
-      <c r="D706" t="s">
+      <c r="D706" s="39" t="s">
         <v>2204</v>
       </c>
       <c r="E706" t="s">
@@ -33808,10 +33810,10 @@
       <c r="B707" t="s">
         <v>750</v>
       </c>
-      <c r="C707" t="s">
+      <c r="C707" s="39" t="s">
         <v>2206</v>
       </c>
-      <c r="D707" t="s">
+      <c r="D707" s="39" t="s">
         <v>2207</v>
       </c>
       <c r="E707" t="s">
@@ -33825,10 +33827,10 @@
       <c r="B708" t="s">
         <v>750</v>
       </c>
-      <c r="C708" t="s">
+      <c r="C708" s="39" t="s">
         <v>2209</v>
       </c>
-      <c r="D708" t="s">
+      <c r="D708" s="39" t="s">
         <v>2210</v>
       </c>
       <c r="E708" t="s">
@@ -33842,10 +33844,10 @@
       <c r="B709" t="s">
         <v>750</v>
       </c>
-      <c r="C709" t="s">
+      <c r="C709" s="39" t="s">
         <v>1723</v>
       </c>
-      <c r="D709" t="s">
+      <c r="D709" s="39" t="s">
         <v>2212</v>
       </c>
       <c r="E709" t="s">
@@ -33859,10 +33861,10 @@
       <c r="B710" t="s">
         <v>750</v>
       </c>
-      <c r="C710" t="s">
+      <c r="C710" s="39" t="s">
         <v>2214</v>
       </c>
-      <c r="D710" t="s">
+      <c r="D710" s="39" t="s">
         <v>2215</v>
       </c>
       <c r="E710" t="s">
@@ -33876,10 +33878,10 @@
       <c r="B711" t="s">
         <v>750</v>
       </c>
-      <c r="C711" t="s">
+      <c r="C711" s="39" t="s">
         <v>2217</v>
       </c>
-      <c r="D711" t="s">
+      <c r="D711" s="39" t="s">
         <v>2218</v>
       </c>
       <c r="E711" t="s">
@@ -33893,10 +33895,10 @@
       <c r="B712" t="s">
         <v>750</v>
       </c>
-      <c r="C712" t="s">
+      <c r="C712" s="39" t="s">
         <v>2220</v>
       </c>
-      <c r="D712" t="s">
+      <c r="D712" s="39" t="s">
         <v>2221</v>
       </c>
       <c r="E712" t="s">

--- a/input/tool/REACH_SOM_DSA_Survey_Tool_v7.xlsx
+++ b/input/tool/REACH_SOM_DSA_Survey_Tool_v7.xlsx
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">settings!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$AB$424</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -8880,7 +8880,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -8953,6 +8953,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9248,8 +9250,8 @@
   <dimension ref="A1:AE424"/>
   <sheetViews>
     <sheetView zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B304" sqref="B304"/>
+      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C326" sqref="C326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21941,8 +21943,8 @@
   <dimension ref="A1:I839"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A604" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B601" sqref="B601"/>
+      <pane ySplit="1" topLeftCell="A659" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C670" sqref="C670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29008,10 +29010,10 @@
       <c r="B409" t="s">
         <v>2391</v>
       </c>
-      <c r="C409" t="s">
+      <c r="C409" s="38" t="s">
         <v>1631</v>
       </c>
-      <c r="D409" t="s">
+      <c r="D409" s="38" t="s">
         <v>1632</v>
       </c>
       <c r="E409" t="s">
@@ -29025,10 +29027,10 @@
       <c r="B410" t="s">
         <v>2391</v>
       </c>
-      <c r="C410" t="s">
+      <c r="C410" s="39" t="s">
         <v>1634</v>
       </c>
-      <c r="D410" t="s">
+      <c r="D410" s="39" t="s">
         <v>1635</v>
       </c>
       <c r="E410" t="s">
@@ -29042,10 +29044,10 @@
       <c r="B411" t="s">
         <v>2391</v>
       </c>
-      <c r="C411" t="s">
+      <c r="C411" s="38" t="s">
         <v>1637</v>
       </c>
-      <c r="D411" t="s">
+      <c r="D411" s="38" t="s">
         <v>1638</v>
       </c>
       <c r="E411" t="s">
@@ -29059,10 +29061,10 @@
       <c r="B412" t="s">
         <v>2391</v>
       </c>
-      <c r="C412" t="s">
+      <c r="C412" s="39" t="s">
         <v>1639</v>
       </c>
-      <c r="D412" t="s">
+      <c r="D412" s="39" t="s">
         <v>1640</v>
       </c>
       <c r="E412" t="s">
@@ -29076,10 +29078,10 @@
       <c r="B413" t="s">
         <v>2391</v>
       </c>
-      <c r="C413" t="s">
+      <c r="C413" s="38" t="s">
         <v>1642</v>
       </c>
-      <c r="D413" s="13" t="s">
+      <c r="D413" s="40" t="s">
         <v>1643</v>
       </c>
       <c r="E413" t="s">
@@ -29093,10 +29095,10 @@
       <c r="B414" t="s">
         <v>2391</v>
       </c>
-      <c r="C414" t="s">
+      <c r="C414" s="39" t="s">
         <v>1644</v>
       </c>
-      <c r="D414" s="13" t="s">
+      <c r="D414" s="41" t="s">
         <v>2420</v>
       </c>
       <c r="E414" t="s">
@@ -29110,10 +29112,10 @@
       <c r="B415" t="s">
         <v>2391</v>
       </c>
-      <c r="C415" t="s">
+      <c r="C415" s="39" t="s">
         <v>1645</v>
       </c>
-      <c r="D415" s="13" t="s">
+      <c r="D415" s="41" t="s">
         <v>2421</v>
       </c>
       <c r="E415" t="s">
@@ -29127,10 +29129,10 @@
       <c r="B416" t="s">
         <v>2391</v>
       </c>
-      <c r="C416" t="s">
+      <c r="C416" s="39" t="s">
         <v>1646</v>
       </c>
-      <c r="D416" s="13" t="s">
+      <c r="D416" s="41" t="s">
         <v>2422</v>
       </c>
       <c r="E416" t="s">
@@ -29144,10 +29146,10 @@
       <c r="B417" t="s">
         <v>2391</v>
       </c>
-      <c r="C417" t="s">
+      <c r="C417" s="39" t="s">
         <v>1647</v>
       </c>
-      <c r="D417" s="13" t="s">
+      <c r="D417" s="41" t="s">
         <v>2423</v>
       </c>
       <c r="E417" t="s">
@@ -29161,10 +29163,10 @@
       <c r="B418" t="s">
         <v>2391</v>
       </c>
-      <c r="C418" t="s">
+      <c r="C418" s="38" t="s">
         <v>1648</v>
       </c>
-      <c r="D418" s="13" t="s">
+      <c r="D418" s="40" t="s">
         <v>2424</v>
       </c>
       <c r="E418" t="s">
@@ -33132,10 +33134,10 @@
       <c r="B665" t="s">
         <v>2403</v>
       </c>
-      <c r="C665" t="s">
+      <c r="C665" s="39" t="s">
         <v>2125</v>
       </c>
-      <c r="D665" t="s">
+      <c r="D665" s="39" t="s">
         <v>2126</v>
       </c>
       <c r="E665" t="s">
@@ -33149,10 +33151,10 @@
       <c r="B666" t="s">
         <v>2403</v>
       </c>
-      <c r="C666" t="s">
+      <c r="C666" s="39" t="s">
         <v>2128</v>
       </c>
-      <c r="D666" t="s">
+      <c r="D666" s="39" t="s">
         <v>2129</v>
       </c>
       <c r="E666" t="s">
@@ -33166,10 +33168,10 @@
       <c r="B667" t="s">
         <v>2403</v>
       </c>
-      <c r="C667" t="s">
+      <c r="C667" s="39" t="s">
         <v>2130</v>
       </c>
-      <c r="D667" t="s">
+      <c r="D667" s="39" t="s">
         <v>2131</v>
       </c>
       <c r="E667" t="s">
@@ -33183,10 +33185,10 @@
       <c r="B668" t="s">
         <v>2403</v>
       </c>
-      <c r="C668" t="s">
+      <c r="C668" s="39" t="s">
         <v>2133</v>
       </c>
-      <c r="D668" t="s">
+      <c r="D668" s="39" t="s">
         <v>2134</v>
       </c>
       <c r="E668" t="s">
@@ -33200,10 +33202,10 @@
       <c r="B669" t="s">
         <v>2403</v>
       </c>
-      <c r="C669" t="s">
+      <c r="C669" s="39" t="s">
         <v>2136</v>
       </c>
-      <c r="D669" t="s">
+      <c r="D669" s="39" t="s">
         <v>2137</v>
       </c>
       <c r="E669" t="s">
@@ -33217,10 +33219,10 @@
       <c r="B670" t="s">
         <v>2403</v>
       </c>
-      <c r="C670" t="s">
+      <c r="C670" s="39" t="s">
         <v>2139</v>
       </c>
-      <c r="D670" t="s">
+      <c r="D670" s="39" t="s">
         <v>2140</v>
       </c>
       <c r="E670" t="s">
@@ -33234,10 +33236,10 @@
       <c r="B671" t="s">
         <v>2403</v>
       </c>
-      <c r="C671" t="s">
+      <c r="C671" s="39" t="s">
         <v>2142</v>
       </c>
-      <c r="D671" t="s">
+      <c r="D671" s="39" t="s">
         <v>2143</v>
       </c>
       <c r="E671" t="s">
@@ -33251,10 +33253,10 @@
       <c r="B672" t="s">
         <v>2403</v>
       </c>
-      <c r="C672" t="s">
+      <c r="C672" s="39" t="s">
         <v>2145</v>
       </c>
-      <c r="D672" t="s">
+      <c r="D672" s="39" t="s">
         <v>2146</v>
       </c>
       <c r="E672" t="s">
@@ -33268,10 +33270,10 @@
       <c r="B673" t="s">
         <v>2403</v>
       </c>
-      <c r="C673" t="s">
+      <c r="C673" s="39" t="s">
         <v>2148</v>
       </c>
-      <c r="D673" t="s">
+      <c r="D673" s="39" t="s">
         <v>2149</v>
       </c>
       <c r="E673" t="s">
@@ -33285,10 +33287,10 @@
       <c r="B674" t="s">
         <v>2403</v>
       </c>
-      <c r="C674" t="s">
+      <c r="C674" s="39" t="s">
         <v>2150</v>
       </c>
-      <c r="D674" t="s">
+      <c r="D674" s="39" t="s">
         <v>2151</v>
       </c>
       <c r="E674" t="s">
@@ -33302,10 +33304,10 @@
       <c r="B675" t="s">
         <v>2403</v>
       </c>
-      <c r="C675" t="s">
+      <c r="C675" s="39" t="s">
         <v>2152</v>
       </c>
-      <c r="D675" t="s">
+      <c r="D675" s="39" t="s">
         <v>2153</v>
       </c>
       <c r="E675" t="s">
@@ -33319,10 +33321,10 @@
       <c r="B676" t="s">
         <v>2403</v>
       </c>
-      <c r="C676" t="s">
+      <c r="C676" s="39" t="s">
         <v>2155</v>
       </c>
-      <c r="D676" t="s">
+      <c r="D676" s="39" t="s">
         <v>2156</v>
       </c>
       <c r="E676" t="s">
@@ -33336,10 +33338,10 @@
       <c r="B677" t="s">
         <v>2403</v>
       </c>
-      <c r="C677" t="s">
+      <c r="C677" s="39" t="s">
         <v>2157</v>
       </c>
-      <c r="D677" t="s">
+      <c r="D677" s="39" t="s">
         <v>2158</v>
       </c>
       <c r="E677" t="s">
@@ -33353,10 +33355,10 @@
       <c r="B678" t="s">
         <v>2403</v>
       </c>
-      <c r="C678" t="s">
+      <c r="C678" s="39" t="s">
         <v>2159</v>
       </c>
-      <c r="D678" t="s">
+      <c r="D678" s="39" t="s">
         <v>2160</v>
       </c>
       <c r="E678" t="s">
@@ -33370,10 +33372,10 @@
       <c r="B679" t="s">
         <v>2403</v>
       </c>
-      <c r="C679" t="s">
+      <c r="C679" s="39" t="s">
         <v>2162</v>
       </c>
-      <c r="D679" t="s">
+      <c r="D679" s="39" t="s">
         <v>2163</v>
       </c>
       <c r="E679" t="s">
@@ -33387,10 +33389,10 @@
       <c r="B680" t="s">
         <v>2403</v>
       </c>
-      <c r="C680" t="s">
+      <c r="C680" s="39" t="s">
         <v>2164</v>
       </c>
-      <c r="D680" t="s">
+      <c r="D680" s="39" t="s">
         <v>2165</v>
       </c>
       <c r="E680" t="s">

--- a/input/tool/REACH_SOM_DSA_Survey_Tool_v7.xlsx
+++ b/input/tool/REACH_SOM_DSA_Survey_Tool_v7.xlsx
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">settings!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$AB$424</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -9250,8 +9250,8 @@
   <dimension ref="A1:AE424"/>
   <sheetViews>
     <sheetView zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C326" sqref="C326"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21943,8 +21943,8 @@
   <dimension ref="A1:I839"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A659" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C670" sqref="C670"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/input/tool/REACH_SOM_DSA_Survey_Tool_v7.xlsx
+++ b/input/tool/REACH_SOM_DSA_Survey_Tool_v7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/assil_benamor_reach-initiative_org/Documents/DSA 2021/SOM2103_DSA_21/input/tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_1D7969E1AA86C31E290A98B8C4D3ED57592CEB73" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFE67C2C-5F08-8344-BFF3-C3527493D04D}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_1D7969E1AA86C31E290A98B8C4D3ED57592CEB73" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{635544C8-D06C-9A44-8F91-5981A68B5EBE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="760" windowWidth="29240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -9246,9 +9246,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C386" sqref="C386"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C142" sqref="C142:C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/input/tool/REACH_SOM_DSA_Survey_Tool_v7.xlsx
+++ b/input/tool/REACH_SOM_DSA_Survey_Tool_v7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/assil_benamor_reach-initiative_org/Documents/DSA 2021/SOM2103_DSA_21/input/tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_1D7969E1AA86C31E290A98B8C4D3ED57592CEB73" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{635544C8-D06C-9A44-8F91-5981A68B5EBE}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_1D7969E1AA86C31E290A98B8C4D3ED57592CEB73" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F1C75A8-3CFF-DE40-A9F5-CE228B8FD206}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="760" windowWidth="29240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="-320" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -9244,11 +9244,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AE424"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C142" sqref="C142:C147"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C302" sqref="C302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9354,7 +9355,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9368,7 +9369,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9382,7 +9383,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9396,7 +9397,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9410,7 +9411,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="35" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" s="35" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -9433,7 +9434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="35" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" s="35" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -9459,7 +9460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9488,7 +9489,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9528,7 +9529,7 @@
       <c r="AA9" s="11"/>
       <c r="AB9" s="11"/>
     </row>
-    <row r="10" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9557,7 +9558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9589,7 +9590,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9615,7 +9616,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9657,7 +9658,7 @@
       <c r="AA13" s="15"/>
       <c r="AB13" s="15"/>
     </row>
-    <row r="14" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9699,7 +9700,7 @@
       <c r="AA14" s="15"/>
       <c r="AB14" s="15"/>
     </row>
-    <row r="15" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9741,7 +9742,7 @@
       <c r="AA15" s="15"/>
       <c r="AB15" s="15"/>
     </row>
-    <row r="16" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9777,7 +9778,7 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
     </row>
-    <row r="17" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9809,7 +9810,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9827,7 +9828,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9851,7 +9852,7 @@
       </c>
       <c r="P19" s="15"/>
     </row>
-    <row r="20" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9866,7 +9867,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9890,7 +9891,7 @@
       </c>
       <c r="P21" s="15"/>
     </row>
-    <row r="22" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9919,7 +9920,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9957,7 +9958,7 @@
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
     </row>
-    <row r="24" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9995,7 +9996,7 @@
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
     </row>
-    <row r="25" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10012,7 +10013,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10054,7 +10055,7 @@
       <c r="AA26" s="11"/>
       <c r="AB26" s="11"/>
     </row>
-    <row r="27" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10083,7 +10084,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10115,7 +10116,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10147,7 +10148,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10185,7 +10186,7 @@
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
     </row>
-    <row r="31" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10227,7 +10228,7 @@
       <c r="AA31" s="11"/>
       <c r="AB31" s="11"/>
     </row>
-    <row r="32" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10269,7 +10270,7 @@
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
     </row>
-    <row r="33" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10309,7 +10310,7 @@
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
     </row>
-    <row r="34" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10347,7 +10348,7 @@
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
     </row>
-    <row r="35" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10373,7 +10374,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10402,7 +10403,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10431,7 +10432,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -10454,7 +10455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -10492,7 +10493,7 @@
       <c r="AA39" s="12"/>
       <c r="AB39" s="12"/>
     </row>
-    <row r="40" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10534,7 +10535,7 @@
       <c r="AA40" s="11"/>
       <c r="AB40" s="11"/>
     </row>
-    <row r="41" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10554,7 +10555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10574,7 +10575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10594,7 +10595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -10614,7 +10615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -10634,7 +10635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -10654,7 +10655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -10692,7 +10693,7 @@
       <c r="AA47" s="12"/>
       <c r="AB47" s="12"/>
     </row>
-    <row r="48" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -10730,7 +10731,7 @@
       <c r="AA48" s="9"/>
       <c r="AB48" s="9"/>
     </row>
-    <row r="49" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10756,7 +10757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -10779,7 +10780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -10799,7 +10800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10822,7 +10823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10860,7 +10861,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -10883,7 +10884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -10921,7 +10922,7 @@
       <c r="AA55" s="12"/>
       <c r="AB55" s="12"/>
     </row>
-    <row r="56" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10959,7 +10960,7 @@
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
     </row>
-    <row r="57" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10985,7 +10986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -11014,7 +11015,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -11037,7 +11038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -11075,7 +11076,7 @@
       <c r="AA60" s="12"/>
       <c r="AB60" s="12"/>
     </row>
-    <row r="61" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -11113,7 +11114,7 @@
       <c r="AA61" s="10"/>
       <c r="AB61" s="10"/>
     </row>
-    <row r="62" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -11153,7 +11154,7 @@
       <c r="AA62" s="11"/>
       <c r="AB62" s="11"/>
     </row>
-    <row r="63" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -11191,7 +11192,7 @@
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
     </row>
-    <row r="64" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -11220,7 +11221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -11249,7 +11250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -11284,7 +11285,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -11301,7 +11302,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -11321,7 +11322,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -11341,7 +11342,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -11361,7 +11362,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -11399,7 +11400,7 @@
       <c r="AA71" s="12"/>
       <c r="AB71" s="12"/>
     </row>
-    <row r="72" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -11416,7 +11417,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -11445,7 +11446,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -11483,7 +11484,7 @@
       <c r="AA74" s="9"/>
       <c r="AB74" s="9"/>
     </row>
-    <row r="75" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -11512,7 +11513,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -11535,7 +11536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -11573,7 +11574,7 @@
       <c r="AA77" s="12"/>
       <c r="AB77" s="12"/>
     </row>
-    <row r="78" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -11611,7 +11612,7 @@
       <c r="AA78" s="9"/>
       <c r="AB78" s="9"/>
     </row>
-    <row r="79" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -11634,7 +11635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -11651,7 +11652,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -11671,7 +11672,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -11709,7 +11710,7 @@
       <c r="AA82" s="12"/>
       <c r="AB82" s="12"/>
     </row>
-    <row r="83" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -11745,7 +11746,7 @@
       <c r="AA83" s="9"/>
       <c r="AB83" s="9"/>
     </row>
-    <row r="84" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -11774,7 +11775,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -11797,7 +11798,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -11817,7 +11818,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -11853,7 +11854,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="88" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -11876,7 +11877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -11905,7 +11906,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -11937,7 +11938,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -11960,7 +11961,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -11983,7 +11984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -12006,7 +12007,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -12044,7 +12045,7 @@
       <c r="AA94" s="12"/>
       <c r="AB94" s="12"/>
     </row>
-    <row r="95" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -12082,7 +12083,7 @@
       <c r="AA95" s="9"/>
       <c r="AB95" s="9"/>
     </row>
-    <row r="96" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -12117,7 +12118,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -12140,7 +12141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -12180,7 +12181,7 @@
       <c r="AA98" s="12"/>
       <c r="AB98" s="12"/>
     </row>
-    <row r="99" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -12218,7 +12219,7 @@
       <c r="AA99" s="9"/>
       <c r="AB99" s="9"/>
     </row>
-    <row r="100" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -12253,7 +12254,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -12276,7 +12277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -12299,7 +12300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -12322,7 +12323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -12360,7 +12361,7 @@
       <c r="AA104" s="12"/>
       <c r="AB104" s="12"/>
     </row>
-    <row r="105" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -12398,7 +12399,7 @@
       <c r="AA105" s="10"/>
       <c r="AB105" s="10"/>
     </row>
-    <row r="106" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -12438,7 +12439,7 @@
       <c r="AA106" s="11"/>
       <c r="AB106" s="11"/>
     </row>
-    <row r="107" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -12476,7 +12477,7 @@
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
     </row>
-    <row r="108" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -12505,7 +12506,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -12528,7 +12529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -12566,7 +12567,7 @@
       <c r="AA110" s="12"/>
       <c r="AB110" s="12"/>
     </row>
-    <row r="111" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -12604,7 +12605,7 @@
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
     </row>
-    <row r="112" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -12642,7 +12643,7 @@
       <c r="AA112" s="9"/>
       <c r="AB112" s="9"/>
     </row>
-    <row r="113" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -12671,7 +12672,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="114" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -12697,7 +12698,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -12735,7 +12736,7 @@
       <c r="AA115" s="12"/>
       <c r="AB115" s="12"/>
     </row>
-    <row r="116" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -12773,7 +12774,7 @@
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
     </row>
-    <row r="117" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -12811,7 +12812,7 @@
       <c r="AA117" s="9"/>
       <c r="AB117" s="9"/>
     </row>
-    <row r="118" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -12849,7 +12850,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="119" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -12872,7 +12873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -12910,7 +12911,7 @@
       <c r="AA120" s="12"/>
       <c r="AB120" s="12"/>
     </row>
-    <row r="121" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -12945,7 +12946,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -12983,7 +12984,7 @@
       <c r="AA122" s="9"/>
       <c r="AB122" s="9"/>
     </row>
-    <row r="123" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -13012,7 +13013,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="124" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -13035,7 +13036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -13073,7 +13074,7 @@
       <c r="AA125" s="12"/>
       <c r="AB125" s="12"/>
     </row>
-    <row r="126" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -13105,7 +13106,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -13143,7 +13144,7 @@
       <c r="AA127" s="12"/>
       <c r="AB127" s="12"/>
     </row>
-    <row r="128" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -13181,7 +13182,7 @@
       <c r="AA128" s="12"/>
       <c r="AB128" s="12"/>
     </row>
-    <row r="129" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -13219,7 +13220,7 @@
       <c r="AA129" s="9"/>
       <c r="AB129" s="9"/>
     </row>
-    <row r="130" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -13245,7 +13246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -13274,7 +13275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -13294,7 +13295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -13320,7 +13321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -13343,7 +13344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -13381,7 +13382,7 @@
       <c r="AA135" s="12"/>
       <c r="AB135" s="12"/>
     </row>
-    <row r="136" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -13419,7 +13420,7 @@
       <c r="AA136" s="10"/>
       <c r="AB136" s="10"/>
     </row>
-    <row r="137" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -13459,7 +13460,7 @@
       <c r="AA137" s="11"/>
       <c r="AB137" s="11"/>
     </row>
-    <row r="138" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -13488,7 +13489,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -13511,7 +13512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -13549,7 +13550,7 @@
       <c r="AA140" s="9"/>
       <c r="AB140" s="9"/>
     </row>
-    <row r="141" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -13566,7 +13567,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="142" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -13592,7 +13593,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="143" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -13618,7 +13619,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="144" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -13638,7 +13639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -13664,7 +13665,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="146" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -13684,7 +13685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -13704,7 +13705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -13718,7 +13719,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="149" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -13732,7 +13733,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="150" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -13755,7 +13756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -13778,7 +13779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -13816,7 +13817,7 @@
       <c r="AA152" s="9"/>
       <c r="AB152" s="9"/>
     </row>
-    <row r="153" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -13845,7 +13846,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="154" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -13883,7 +13884,7 @@
       <c r="AA154" s="12"/>
       <c r="AB154" s="12"/>
     </row>
-    <row r="155" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -13921,7 +13922,7 @@
       <c r="AA155" s="9"/>
       <c r="AB155" s="9"/>
     </row>
-    <row r="156" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -13950,7 +13951,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="157" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -13988,7 +13989,7 @@
       <c r="AA157" s="12"/>
       <c r="AB157" s="12"/>
     </row>
-    <row r="158" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -14017,7 +14018,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="159" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -14055,7 +14056,7 @@
       <c r="AA159" s="12"/>
       <c r="AB159" s="12"/>
     </row>
-    <row r="160" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -14093,7 +14094,7 @@
       <c r="AA160" s="10"/>
       <c r="AB160" s="10"/>
     </row>
-    <row r="161" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -14133,7 +14134,7 @@
       <c r="AA161" s="11"/>
       <c r="AB161" s="11"/>
     </row>
-    <row r="162" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -14162,7 +14163,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -14194,7 +14195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -14263,7 +14264,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="166" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -14280,7 +14281,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="167" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -14318,7 +14319,7 @@
       <c r="AA167" s="12"/>
       <c r="AB167" s="12"/>
     </row>
-    <row r="168" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -14350,7 +14351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -14373,7 +14374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -14411,7 +14412,7 @@
       <c r="AA170" s="10"/>
       <c r="AB170" s="10"/>
     </row>
-    <row r="171" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -14451,7 +14452,7 @@
       <c r="AA171" s="11"/>
       <c r="AB171" s="11"/>
     </row>
-    <row r="172" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -14480,7 +14481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -14503,7 +14504,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="174" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -14529,7 +14530,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -14549,7 +14550,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="176" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -14569,7 +14570,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="177" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -14589,7 +14590,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="178" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -14609,7 +14610,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="179" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -14641,7 +14642,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="180" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -14658,7 +14659,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="181" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -14687,7 +14688,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="182" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -14710,7 +14711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -14748,7 +14749,7 @@
       <c r="AA183" s="12"/>
       <c r="AB183" s="12"/>
     </row>
-    <row r="184" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -14777,7 +14778,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="185" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -14797,7 +14798,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="186" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -14820,7 +14821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -14858,7 +14859,7 @@
       <c r="AA187" s="9"/>
       <c r="AB187" s="9"/>
     </row>
-    <row r="188" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -14887,7 +14888,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="189" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -14919,7 +14920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -14942,7 +14943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:28" s="33" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:28" s="33" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -14962,7 +14963,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="192" spans="1:28" s="33" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:28" s="33" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -14982,7 +14983,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="193" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -15002,7 +15003,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="194" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -15022,7 +15023,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="195" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -15045,7 +15046,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="196" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -15083,7 +15084,7 @@
       <c r="AA196" s="12"/>
       <c r="AB196" s="12"/>
     </row>
-    <row r="197" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -15152,7 +15153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="199" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -15190,7 +15191,7 @@
       <c r="AA199" s="12"/>
       <c r="AB199" s="12"/>
     </row>
-    <row r="200" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -15213,7 +15214,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="201" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -15245,7 +15246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -15268,7 +15269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -15306,7 +15307,7 @@
       <c r="AA203" s="9"/>
       <c r="AB203" s="9"/>
     </row>
-    <row r="204" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -15323,7 +15324,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="205" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -15346,7 +15347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -15369,7 +15370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -15392,7 +15393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -15409,7 +15410,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="209" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -15429,7 +15430,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="210" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -15452,7 +15453,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="211" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -15469,7 +15470,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="212" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -15492,7 +15493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -15515,7 +15516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -15538,7 +15539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -15576,7 +15577,7 @@
       <c r="AA215" s="12"/>
       <c r="AB215" s="12"/>
     </row>
-    <row r="216" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -15616,7 +15617,7 @@
       <c r="AA216" s="9"/>
       <c r="AB216" s="9"/>
     </row>
-    <row r="217" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -15645,7 +15646,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="218" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
@@ -15674,7 +15675,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="219" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -15703,7 +15704,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="220" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -15732,7 +15733,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="221" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -15770,7 +15771,7 @@
       <c r="AA221" s="12"/>
       <c r="AB221" s="12"/>
     </row>
-    <row r="222" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -15802,7 +15803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="223" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -15840,7 +15841,7 @@
       <c r="AA223" s="9"/>
       <c r="AB223" s="9"/>
     </row>
-    <row r="224" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -15869,7 +15870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -15892,7 +15893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
@@ -15906,7 +15907,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="227" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
@@ -15975,7 +15976,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="229" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
@@ -16013,7 +16014,7 @@
       <c r="AA229" s="12"/>
       <c r="AB229" s="12"/>
     </row>
-    <row r="230" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
@@ -16045,7 +16046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
@@ -16068,7 +16069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
@@ -16091,7 +16092,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="233" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -16123,7 +16124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
@@ -16146,7 +16147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
@@ -16184,7 +16185,7 @@
       <c r="AA235" s="10"/>
       <c r="AB235" s="10"/>
     </row>
-    <row r="236" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
@@ -16224,7 +16225,7 @@
       <c r="AA236" s="11"/>
       <c r="AB236" s="11"/>
     </row>
-    <row r="237" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
@@ -16262,7 +16263,7 @@
       <c r="AA237" s="9"/>
       <c r="AB237" s="9"/>
     </row>
-    <row r="238" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -16291,7 +16292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
@@ -16314,7 +16315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
@@ -16352,7 +16353,7 @@
       <c r="AA240" s="12"/>
       <c r="AB240" s="12"/>
     </row>
-    <row r="241" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
@@ -16390,7 +16391,7 @@
       <c r="AA241" s="9"/>
       <c r="AB241" s="9"/>
     </row>
-    <row r="242" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -16419,7 +16420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
@@ -16442,7 +16443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
@@ -16480,7 +16481,7 @@
       <c r="AA244" s="12"/>
       <c r="AB244" s="12"/>
     </row>
-    <row r="245" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
@@ -16518,7 +16519,7 @@
       <c r="AA245" s="9"/>
       <c r="AB245" s="9"/>
     </row>
-    <row r="246" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
@@ -16541,7 +16542,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="247" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
@@ -16564,7 +16565,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="248" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
@@ -16587,7 +16588,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="249" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
@@ -16610,7 +16611,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="250" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
@@ -16633,7 +16634,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="251" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
@@ -16671,7 +16672,7 @@
       <c r="AA251" s="12"/>
       <c r="AB251" s="12"/>
     </row>
-    <row r="252" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
@@ -16709,7 +16710,7 @@
       <c r="AA252" s="9"/>
       <c r="AB252" s="9"/>
     </row>
-    <row r="253" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
@@ -16732,7 +16733,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="254" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
@@ -16755,7 +16756,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="255" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
@@ -16778,7 +16779,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="256" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
@@ -16801,7 +16802,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="257" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
@@ -16824,7 +16825,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="258" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
@@ -16862,7 +16863,7 @@
       <c r="AA258" s="12"/>
       <c r="AB258" s="12"/>
     </row>
-    <row r="259" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
@@ -16898,7 +16899,7 @@
       <c r="AA259" s="9"/>
       <c r="AB259" s="9"/>
     </row>
-    <row r="260" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
@@ -16927,7 +16928,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="261" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>260</v>
       </c>
@@ -16956,7 +16957,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="262" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>261</v>
       </c>
@@ -16985,7 +16986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>262</v>
       </c>
@@ -17008,7 +17009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>263</v>
       </c>
@@ -17037,7 +17038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>264</v>
       </c>
@@ -17060,7 +17061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>265</v>
       </c>
@@ -17098,7 +17099,7 @@
       <c r="AA266" s="12"/>
       <c r="AB266" s="12"/>
     </row>
-    <row r="267" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
@@ -17127,7 +17128,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="268" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>267</v>
       </c>
@@ -17196,7 +17197,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="270" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>269</v>
       </c>
@@ -17234,7 +17235,7 @@
       <c r="AA270" s="12"/>
       <c r="AB270" s="12"/>
     </row>
-    <row r="271" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>270</v>
       </c>
@@ -17266,7 +17267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>271</v>
       </c>
@@ -17289,7 +17290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>272</v>
       </c>
@@ -17327,7 +17328,7 @@
       <c r="AA273" s="10"/>
       <c r="AB273" s="10"/>
     </row>
-    <row r="274" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>273</v>
       </c>
@@ -17367,7 +17368,7 @@
       <c r="AA274" s="11"/>
       <c r="AB274" s="11"/>
     </row>
-    <row r="275" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>274</v>
       </c>
@@ -17399,7 +17400,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="276" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>275</v>
       </c>
@@ -17466,7 +17467,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="278" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>277</v>
       </c>
@@ -17504,7 +17505,7 @@
       <c r="AA278" s="12"/>
       <c r="AB278" s="12"/>
     </row>
-    <row r="279" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>278</v>
       </c>
@@ -17533,7 +17534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>279</v>
       </c>
@@ -17556,7 +17557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>280</v>
       </c>
@@ -17594,7 +17595,7 @@
       <c r="AA281" s="10"/>
       <c r="AB281" s="10"/>
     </row>
-    <row r="282" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>281</v>
       </c>
@@ -17634,7 +17635,7 @@
       <c r="AA282" s="11"/>
       <c r="AB282" s="11"/>
     </row>
-    <row r="283" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>282</v>
       </c>
@@ -17672,7 +17673,7 @@
       <c r="AA283" s="9"/>
       <c r="AB283" s="9"/>
     </row>
-    <row r="284" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>283</v>
       </c>
@@ -17701,7 +17702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>284</v>
       </c>
@@ -17724,7 +17725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>285</v>
       </c>
@@ -17750,7 +17751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>286</v>
       </c>
@@ -17790,7 +17791,7 @@
       <c r="AA287" s="9"/>
       <c r="AB287" s="9"/>
     </row>
-    <row r="288" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>287</v>
       </c>
@@ -17813,7 +17814,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="289" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>288</v>
       </c>
@@ -17836,7 +17837,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="290" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>289</v>
       </c>
@@ -17859,7 +17860,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="291" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>290</v>
       </c>
@@ -17882,7 +17883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="292" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>291</v>
       </c>
@@ -17905,7 +17906,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="293" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>292</v>
       </c>
@@ -17943,7 +17944,7 @@
       <c r="AA293" s="12"/>
       <c r="AB293" s="12"/>
     </row>
-    <row r="294" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>293</v>
       </c>
@@ -17981,7 +17982,7 @@
       <c r="AA294" s="12"/>
       <c r="AB294" s="12"/>
     </row>
-    <row r="295" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>294</v>
       </c>
@@ -18004,7 +18005,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="296" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>295</v>
       </c>
@@ -18033,7 +18034,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="297" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>296</v>
       </c>
@@ -18056,7 +18057,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="298" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>297</v>
       </c>
@@ -18085,7 +18086,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="299" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>298</v>
       </c>
@@ -18108,7 +18109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="300" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>299</v>
       </c>
@@ -18131,7 +18132,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="301" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>300</v>
       </c>
@@ -18200,7 +18201,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="303" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>302</v>
       </c>
@@ -18238,7 +18239,7 @@
       <c r="AA303" s="12"/>
       <c r="AB303" s="12"/>
     </row>
-    <row r="304" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>303</v>
       </c>
@@ -18267,7 +18268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>304</v>
       </c>
@@ -18290,7 +18291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>305</v>
       </c>
@@ -18319,7 +18320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>306</v>
       </c>
@@ -18342,7 +18343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>307</v>
       </c>
@@ -18380,7 +18381,7 @@
       <c r="AA308" s="10"/>
       <c r="AB308" s="10"/>
     </row>
-    <row r="309" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>308</v>
       </c>
@@ -18420,7 +18421,7 @@
       <c r="AA309" s="11"/>
       <c r="AB309" s="11"/>
     </row>
-    <row r="310" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>309</v>
       </c>
@@ -18458,7 +18459,7 @@
       <c r="AA310" s="9"/>
       <c r="AB310" s="9"/>
     </row>
-    <row r="311" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>310</v>
       </c>
@@ -18487,7 +18488,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="312" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>311</v>
       </c>
@@ -18510,7 +18511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>312</v>
       </c>
@@ -18548,7 +18549,7 @@
       <c r="AA313" s="12"/>
       <c r="AB313" s="12"/>
     </row>
-    <row r="314" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>313</v>
       </c>
@@ -18584,7 +18585,7 @@
       <c r="AA314" s="9"/>
       <c r="AB314" s="9"/>
     </row>
-    <row r="315" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>314</v>
       </c>
@@ -18613,7 +18614,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="316" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>315</v>
       </c>
@@ -18642,7 +18643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="317" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>316</v>
       </c>
@@ -18671,7 +18672,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="318" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>317</v>
       </c>
@@ -18700,7 +18701,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="319" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>318</v>
       </c>
@@ -18729,7 +18730,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="320" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>319</v>
       </c>
@@ -18758,7 +18759,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="321" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>320</v>
       </c>
@@ -18787,7 +18788,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="322" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>321</v>
       </c>
@@ -18816,7 +18817,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="323" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>322</v>
       </c>
@@ -18842,7 +18843,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="324" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>323</v>
       </c>
@@ -18874,7 +18875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>324</v>
       </c>
@@ -18897,7 +18898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>325</v>
       </c>
@@ -18929,7 +18930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>326</v>
       </c>
@@ -18952,7 +18953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>327</v>
       </c>
@@ -18984,7 +18985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>328</v>
       </c>
@@ -19007,7 +19008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>329</v>
       </c>
@@ -19039,7 +19040,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="331" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>330</v>
       </c>
@@ -19077,7 +19078,7 @@
       <c r="AA331" s="12"/>
       <c r="AB331" s="12"/>
     </row>
-    <row r="332" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>331</v>
       </c>
@@ -19106,7 +19107,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="333" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>332</v>
       </c>
@@ -19175,7 +19176,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="335" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>334</v>
       </c>
@@ -19198,7 +19199,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="336" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>335</v>
       </c>
@@ -19236,7 +19237,7 @@
       <c r="AA336" s="12"/>
       <c r="AB336" s="12"/>
     </row>
-    <row r="337" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>336</v>
       </c>
@@ -19274,7 +19275,7 @@
       <c r="AA337" s="10"/>
       <c r="AB337" s="10"/>
     </row>
-    <row r="338" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>337</v>
       </c>
@@ -19314,7 +19315,7 @@
       <c r="AA338" s="11"/>
       <c r="AB338" s="11"/>
     </row>
-    <row r="339" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>338</v>
       </c>
@@ -19352,7 +19353,7 @@
       <c r="AA339" s="9"/>
       <c r="AB339" s="9"/>
     </row>
-    <row r="340" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>339</v>
       </c>
@@ -19381,7 +19382,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="341" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>340</v>
       </c>
@@ -19404,7 +19405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>341</v>
       </c>
@@ -19433,7 +19434,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="343" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>342</v>
       </c>
@@ -19447,7 +19448,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="344" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>343</v>
       </c>
@@ -19485,7 +19486,7 @@
       <c r="AA344" s="9"/>
       <c r="AB344" s="9"/>
     </row>
-    <row r="345" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>344</v>
       </c>
@@ -19514,7 +19515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>345</v>
       </c>
@@ -19537,7 +19538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>346</v>
       </c>
@@ -19560,7 +19561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>347</v>
       </c>
@@ -19583,7 +19584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>348</v>
       </c>
@@ -19621,7 +19622,7 @@
       <c r="AA349" s="12"/>
       <c r="AB349" s="12"/>
     </row>
-    <row r="350" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>349</v>
       </c>
@@ -19661,7 +19662,7 @@
       <c r="AA350" s="9"/>
       <c r="AB350" s="9"/>
     </row>
-    <row r="351" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>350</v>
       </c>
@@ -19693,7 +19694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>351</v>
       </c>
@@ -19716,7 +19717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>352</v>
       </c>
@@ -19754,7 +19755,7 @@
       <c r="AA353" s="12"/>
       <c r="AB353" s="12"/>
     </row>
-    <row r="354" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>353</v>
       </c>
@@ -19792,7 +19793,7 @@
       <c r="AA354" s="9"/>
       <c r="AB354" s="9"/>
     </row>
-    <row r="355" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>354</v>
       </c>
@@ -19821,7 +19822,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="356" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>355</v>
       </c>
@@ -19850,7 +19851,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="357" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>356</v>
       </c>
@@ -19879,7 +19880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>357</v>
       </c>
@@ -19902,7 +19903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>358</v>
       </c>
@@ -19940,7 +19941,7 @@
       <c r="AA359" s="12"/>
       <c r="AB359" s="12"/>
     </row>
-    <row r="360" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>359</v>
       </c>
@@ -19978,7 +19979,7 @@
       <c r="AA360" s="10"/>
       <c r="AB360" s="10"/>
     </row>
-    <row r="361" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>360</v>
       </c>
@@ -20018,7 +20019,7 @@
       <c r="AA361" s="11"/>
       <c r="AB361" s="11"/>
     </row>
-    <row r="362" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>361</v>
       </c>
@@ -20056,7 +20057,7 @@
       <c r="AA362" s="9"/>
       <c r="AB362" s="9"/>
     </row>
-    <row r="363" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>362</v>
       </c>
@@ -20085,7 +20086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>363</v>
       </c>
@@ -20108,7 +20109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>364</v>
       </c>
@@ -20134,7 +20135,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="366" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>365</v>
       </c>
@@ -20172,7 +20173,7 @@
       <c r="AA366" s="12"/>
       <c r="AB366" s="12"/>
     </row>
-    <row r="367" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>366</v>
       </c>
@@ -20204,7 +20205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>367</v>
       </c>
@@ -20227,7 +20228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>368</v>
       </c>
@@ -20265,7 +20266,7 @@
       <c r="AA369" s="10"/>
       <c r="AB369" s="10"/>
     </row>
-    <row r="370" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>369</v>
       </c>
@@ -20305,7 +20306,7 @@
       <c r="AA370" s="11"/>
       <c r="AB370" s="11"/>
     </row>
-    <row r="371" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>370</v>
       </c>
@@ -20341,7 +20342,7 @@
       <c r="AA371" s="9"/>
       <c r="AB371" s="9"/>
     </row>
-    <row r="372" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>371</v>
       </c>
@@ -20370,7 +20371,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="373" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>372</v>
       </c>
@@ -20399,7 +20400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>373</v>
       </c>
@@ -20422,7 +20423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>374</v>
       </c>
@@ -20460,7 +20461,7 @@
       <c r="AA375" s="12"/>
       <c r="AB375" s="12"/>
     </row>
-    <row r="376" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>375</v>
       </c>
@@ -20498,7 +20499,7 @@
       <c r="AA376" s="10"/>
       <c r="AB376" s="10"/>
     </row>
-    <row r="377" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>376</v>
       </c>
@@ -20538,7 +20539,7 @@
       <c r="AA377" s="11"/>
       <c r="AB377" s="11"/>
     </row>
-    <row r="378" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>377</v>
       </c>
@@ -20576,7 +20577,7 @@
       <c r="AA378" s="9"/>
       <c r="AB378" s="9"/>
     </row>
-    <row r="379" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>378</v>
       </c>
@@ -20605,7 +20606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>379</v>
       </c>
@@ -20628,7 +20629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>380</v>
       </c>
@@ -20666,7 +20667,7 @@
       <c r="AA381" s="12"/>
       <c r="AB381" s="12"/>
     </row>
-    <row r="382" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>381</v>
       </c>
@@ -20704,7 +20705,7 @@
       <c r="AA382" s="9"/>
       <c r="AB382" s="9"/>
     </row>
-    <row r="383" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>382</v>
       </c>
@@ -20733,7 +20734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>383</v>
       </c>
@@ -20756,7 +20757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>384</v>
       </c>
@@ -20794,7 +20795,7 @@
       <c r="AA385" s="12"/>
       <c r="AB385" s="12"/>
     </row>
-    <row r="386" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>385</v>
       </c>
@@ -20826,7 +20827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>386</v>
       </c>
@@ -20849,7 +20850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>387</v>
       </c>
@@ -20878,7 +20879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>388</v>
       </c>
@@ -20901,7 +20902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>389</v>
       </c>
@@ -20930,7 +20931,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="391" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>390</v>
       </c>
@@ -20953,7 +20954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>391</v>
       </c>
@@ -20985,7 +20986,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="393" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>392</v>
       </c>
@@ -21008,7 +21009,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="394" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>393</v>
       </c>
@@ -21031,7 +21032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>394</v>
       </c>
@@ -21054,7 +21055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>395</v>
       </c>
@@ -21083,7 +21084,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="397" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>396</v>
       </c>
@@ -21106,7 +21107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>397</v>
       </c>
@@ -21135,7 +21136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>398</v>
       </c>
@@ -21158,7 +21159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>399</v>
       </c>
@@ -21196,7 +21197,7 @@
       <c r="AA400" s="10"/>
       <c r="AB400" s="10"/>
     </row>
-    <row r="401" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>400</v>
       </c>
@@ -21234,7 +21235,7 @@
       <c r="AA401" s="11"/>
       <c r="AB401" s="11"/>
     </row>
-    <row r="402" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>401</v>
       </c>
@@ -21257,7 +21258,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="403" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>402</v>
       </c>
@@ -21280,7 +21281,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="404" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>403</v>
       </c>
@@ -21303,7 +21304,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="405" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>404</v>
       </c>
@@ -21326,7 +21327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>405</v>
       </c>
@@ -21352,7 +21353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>406</v>
       </c>
@@ -21390,7 +21391,7 @@
       <c r="AA407" s="10"/>
       <c r="AB407" s="10"/>
     </row>
-    <row r="408" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>407</v>
       </c>
@@ -21407,7 +21408,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="409" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>408</v>
       </c>
@@ -21445,7 +21446,7 @@
       <c r="AA409" s="10"/>
       <c r="AB409" s="10"/>
     </row>
-    <row r="410" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>409</v>
       </c>
@@ -21485,7 +21486,7 @@
       <c r="AA410" s="11"/>
       <c r="AB410" s="11"/>
     </row>
-    <row r="411" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>410</v>
       </c>
@@ -21523,7 +21524,7 @@
       <c r="AA411" s="9"/>
       <c r="AB411" s="9"/>
     </row>
-    <row r="412" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>411</v>
       </c>
@@ -21552,7 +21553,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="413" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>412</v>
       </c>
@@ -21581,7 +21582,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="414" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>413</v>
       </c>
@@ -21610,7 +21611,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="415" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>414</v>
       </c>
@@ -21639,7 +21640,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="416" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>415</v>
       </c>
@@ -21668,7 +21669,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="417" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>416</v>
       </c>
@@ -21697,7 +21698,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="418" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>417</v>
       </c>
@@ -21735,7 +21736,7 @@
       <c r="AA418" s="12"/>
       <c r="AB418" s="12"/>
     </row>
-    <row r="419" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>418</v>
       </c>
@@ -21773,7 +21774,7 @@
       <c r="AA419" s="9"/>
       <c r="AB419" s="9"/>
     </row>
-    <row r="420" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>419</v>
       </c>
@@ -21796,7 +21797,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="421" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>420</v>
       </c>
@@ -21834,7 +21835,7 @@
       <c r="AA421" s="12"/>
       <c r="AB421" s="12"/>
     </row>
-    <row r="422" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>421</v>
       </c>
@@ -21851,7 +21852,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="423" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>422</v>
       </c>
@@ -21889,7 +21890,7 @@
       <c r="AA423" s="10"/>
       <c r="AB423" s="10"/>
     </row>
-    <row r="424" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>423</v>
       </c>
@@ -21928,7 +21929,13 @@
       <c r="AB424" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB424" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AB424" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="select_one time"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21940,8 +21947,8 @@
   <dimension ref="A1:I839"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B447" sqref="B447"/>
+      <pane ySplit="1" topLeftCell="A455" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D474" sqref="D474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/input/tool/REACH_SOM_DSA_Survey_Tool_v7.xlsx
+++ b/input/tool/REACH_SOM_DSA_Survey_Tool_v7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/assil_benamor_reach-initiative_org/Documents/DSA 2021/SOM2103_DSA_21/input/tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_1D7969E1AA86C31E290A98B8C4D3ED57592CEB73" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F1C75A8-3CFF-DE40-A9F5-CE228B8FD206}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_1D7969E1AA86C31E290A98B8C4D3ED57592CEB73" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2931BA00-B4C4-6E43-95E7-BE598081C618}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-320" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="31160" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -9244,12 +9244,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AE424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C302" sqref="C302"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9259,7 +9258,7 @@
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
     <col min="4" max="4" width="46.5" style="18" customWidth="1"/>
     <col min="5" max="5" width="45.83203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" customWidth="1"/>
     <col min="7" max="7" width="47.1640625" customWidth="1"/>
     <col min="8" max="8" width="23.5" customWidth="1"/>
     <col min="9" max="9" width="14.83203125" customWidth="1"/>
@@ -9355,7 +9354,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9369,7 +9368,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9383,7 +9382,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9397,7 +9396,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9411,7 +9410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="35" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" s="35" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -9434,7 +9433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="35" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" s="35" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -9460,7 +9459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9489,7 +9488,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9529,7 +9528,7 @@
       <c r="AA9" s="11"/>
       <c r="AB9" s="11"/>
     </row>
-    <row r="10" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9558,7 +9557,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9590,7 +9589,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9616,7 +9615,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9658,7 +9657,7 @@
       <c r="AA13" s="15"/>
       <c r="AB13" s="15"/>
     </row>
-    <row r="14" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9700,7 +9699,7 @@
       <c r="AA14" s="15"/>
       <c r="AB14" s="15"/>
     </row>
-    <row r="15" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9742,7 +9741,7 @@
       <c r="AA15" s="15"/>
       <c r="AB15" s="15"/>
     </row>
-    <row r="16" spans="1:31" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9778,7 +9777,7 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
     </row>
-    <row r="17" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9810,7 +9809,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9828,7 +9827,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9852,7 +9851,7 @@
       </c>
       <c r="P19" s="15"/>
     </row>
-    <row r="20" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9867,7 +9866,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9891,7 +9890,7 @@
       </c>
       <c r="P21" s="15"/>
     </row>
-    <row r="22" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9920,7 +9919,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9958,7 +9957,7 @@
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
     </row>
-    <row r="24" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9996,7 +9995,7 @@
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
     </row>
-    <row r="25" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10013,7 +10012,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10055,7 +10054,7 @@
       <c r="AA26" s="11"/>
       <c r="AB26" s="11"/>
     </row>
-    <row r="27" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10084,7 +10083,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10116,7 +10115,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10148,7 +10147,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10186,7 +10185,7 @@
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
     </row>
-    <row r="31" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10228,7 +10227,7 @@
       <c r="AA31" s="11"/>
       <c r="AB31" s="11"/>
     </row>
-    <row r="32" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10270,7 +10269,7 @@
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
     </row>
-    <row r="33" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10310,7 +10309,7 @@
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
     </row>
-    <row r="34" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10348,7 +10347,7 @@
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
     </row>
-    <row r="35" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10374,7 +10373,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10403,7 +10402,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10432,7 +10431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -10455,7 +10454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -10493,7 +10492,7 @@
       <c r="AA39" s="12"/>
       <c r="AB39" s="12"/>
     </row>
-    <row r="40" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10535,7 +10534,7 @@
       <c r="AA40" s="11"/>
       <c r="AB40" s="11"/>
     </row>
-    <row r="41" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10555,7 +10554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10575,7 +10574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10595,7 +10594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -10615,7 +10614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -10635,7 +10634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -10655,7 +10654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -10693,7 +10692,7 @@
       <c r="AA47" s="12"/>
       <c r="AB47" s="12"/>
     </row>
-    <row r="48" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -10731,7 +10730,7 @@
       <c r="AA48" s="9"/>
       <c r="AB48" s="9"/>
     </row>
-    <row r="49" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10757,7 +10756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -10780,7 +10779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -10800,7 +10799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10823,7 +10822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10861,7 +10860,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -10884,7 +10883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -10922,7 +10921,7 @@
       <c r="AA55" s="12"/>
       <c r="AB55" s="12"/>
     </row>
-    <row r="56" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10960,7 +10959,7 @@
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
     </row>
-    <row r="57" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10986,7 +10985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -11015,7 +11014,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -11038,7 +11037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -11076,7 +11075,7 @@
       <c r="AA60" s="12"/>
       <c r="AB60" s="12"/>
     </row>
-    <row r="61" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -11114,7 +11113,7 @@
       <c r="AA61" s="10"/>
       <c r="AB61" s="10"/>
     </row>
-    <row r="62" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -11154,7 +11153,7 @@
       <c r="AA62" s="11"/>
       <c r="AB62" s="11"/>
     </row>
-    <row r="63" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -11192,7 +11191,7 @@
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
     </row>
-    <row r="64" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -11221,7 +11220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -11250,7 +11249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -11285,7 +11284,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -11302,7 +11301,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -11322,7 +11321,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -11342,7 +11341,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -11362,7 +11361,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -11400,7 +11399,7 @@
       <c r="AA71" s="12"/>
       <c r="AB71" s="12"/>
     </row>
-    <row r="72" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -11417,7 +11416,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -11446,7 +11445,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -11484,7 +11483,7 @@
       <c r="AA74" s="9"/>
       <c r="AB74" s="9"/>
     </row>
-    <row r="75" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -11513,7 +11512,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -11536,7 +11535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -11574,7 +11573,7 @@
       <c r="AA77" s="12"/>
       <c r="AB77" s="12"/>
     </row>
-    <row r="78" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -11612,7 +11611,7 @@
       <c r="AA78" s="9"/>
       <c r="AB78" s="9"/>
     </row>
-    <row r="79" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -11635,7 +11634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -11652,7 +11651,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -11672,7 +11671,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -11710,7 +11709,7 @@
       <c r="AA82" s="12"/>
       <c r="AB82" s="12"/>
     </row>
-    <row r="83" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -11746,7 +11745,7 @@
       <c r="AA83" s="9"/>
       <c r="AB83" s="9"/>
     </row>
-    <row r="84" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -11775,7 +11774,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -11798,7 +11797,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -11818,7 +11817,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -11854,7 +11853,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="88" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -11877,7 +11876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -11906,7 +11905,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -11938,7 +11937,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -11961,7 +11960,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -11984,7 +11983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -12007,7 +12006,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -12045,7 +12044,7 @@
       <c r="AA94" s="12"/>
       <c r="AB94" s="12"/>
     </row>
-    <row r="95" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -12083,7 +12082,7 @@
       <c r="AA95" s="9"/>
       <c r="AB95" s="9"/>
     </row>
-    <row r="96" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -12118,7 +12117,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -12141,7 +12140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -12181,7 +12180,7 @@
       <c r="AA98" s="12"/>
       <c r="AB98" s="12"/>
     </row>
-    <row r="99" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -12219,7 +12218,7 @@
       <c r="AA99" s="9"/>
       <c r="AB99" s="9"/>
     </row>
-    <row r="100" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -12254,7 +12253,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -12277,7 +12276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -12300,7 +12299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -12323,7 +12322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -12361,7 +12360,7 @@
       <c r="AA104" s="12"/>
       <c r="AB104" s="12"/>
     </row>
-    <row r="105" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -12399,7 +12398,7 @@
       <c r="AA105" s="10"/>
       <c r="AB105" s="10"/>
     </row>
-    <row r="106" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -12439,7 +12438,7 @@
       <c r="AA106" s="11"/>
       <c r="AB106" s="11"/>
     </row>
-    <row r="107" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -12477,7 +12476,7 @@
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
     </row>
-    <row r="108" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -12506,7 +12505,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -12529,7 +12528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -12567,7 +12566,7 @@
       <c r="AA110" s="12"/>
       <c r="AB110" s="12"/>
     </row>
-    <row r="111" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -12605,7 +12604,7 @@
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
     </row>
-    <row r="112" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -12643,7 +12642,7 @@
       <c r="AA112" s="9"/>
       <c r="AB112" s="9"/>
     </row>
-    <row r="113" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -12672,7 +12671,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="114" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -12698,7 +12697,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="115" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -12736,7 +12735,7 @@
       <c r="AA115" s="12"/>
       <c r="AB115" s="12"/>
     </row>
-    <row r="116" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -12774,7 +12773,7 @@
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
     </row>
-    <row r="117" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -12812,7 +12811,7 @@
       <c r="AA117" s="9"/>
       <c r="AB117" s="9"/>
     </row>
-    <row r="118" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -12850,7 +12849,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="119" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -12873,7 +12872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -12911,7 +12910,7 @@
       <c r="AA120" s="12"/>
       <c r="AB120" s="12"/>
     </row>
-    <row r="121" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -12946,7 +12945,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -12984,7 +12983,7 @@
       <c r="AA122" s="9"/>
       <c r="AB122" s="9"/>
     </row>
-    <row r="123" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -13013,7 +13012,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="124" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -13036,7 +13035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -13074,7 +13073,7 @@
       <c r="AA125" s="12"/>
       <c r="AB125" s="12"/>
     </row>
-    <row r="126" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -13106,7 +13105,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -13144,7 +13143,7 @@
       <c r="AA127" s="12"/>
       <c r="AB127" s="12"/>
     </row>
-    <row r="128" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -13182,7 +13181,7 @@
       <c r="AA128" s="12"/>
       <c r="AB128" s="12"/>
     </row>
-    <row r="129" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -13220,7 +13219,7 @@
       <c r="AA129" s="9"/>
       <c r="AB129" s="9"/>
     </row>
-    <row r="130" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -13246,7 +13245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -13275,7 +13274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -13295,7 +13294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -13321,7 +13320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -13344,7 +13343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -13382,7 +13381,7 @@
       <c r="AA135" s="12"/>
       <c r="AB135" s="12"/>
     </row>
-    <row r="136" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -13420,7 +13419,7 @@
       <c r="AA136" s="10"/>
       <c r="AB136" s="10"/>
     </row>
-    <row r="137" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -13460,7 +13459,7 @@
       <c r="AA137" s="11"/>
       <c r="AB137" s="11"/>
     </row>
-    <row r="138" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -13489,7 +13488,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -13512,7 +13511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -13550,7 +13549,7 @@
       <c r="AA140" s="9"/>
       <c r="AB140" s="9"/>
     </row>
-    <row r="141" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -13567,7 +13566,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="142" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -13593,7 +13592,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="143" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -13619,7 +13618,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="144" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -13639,7 +13638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -13665,7 +13664,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="146" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -13685,7 +13684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -13705,7 +13704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -13719,7 +13718,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="149" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -13733,7 +13732,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="150" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -13756,7 +13755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -13779,7 +13778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -13817,7 +13816,7 @@
       <c r="AA152" s="9"/>
       <c r="AB152" s="9"/>
     </row>
-    <row r="153" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -13846,7 +13845,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="154" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -13884,7 +13883,7 @@
       <c r="AA154" s="12"/>
       <c r="AB154" s="12"/>
     </row>
-    <row r="155" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -13922,7 +13921,7 @@
       <c r="AA155" s="9"/>
       <c r="AB155" s="9"/>
     </row>
-    <row r="156" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -13951,7 +13950,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="157" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -13989,7 +13988,7 @@
       <c r="AA157" s="12"/>
       <c r="AB157" s="12"/>
     </row>
-    <row r="158" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -14018,7 +14017,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="159" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -14056,7 +14055,7 @@
       <c r="AA159" s="12"/>
       <c r="AB159" s="12"/>
     </row>
-    <row r="160" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -14094,7 +14093,7 @@
       <c r="AA160" s="10"/>
       <c r="AB160" s="10"/>
     </row>
-    <row r="161" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -14134,7 +14133,7 @@
       <c r="AA161" s="11"/>
       <c r="AB161" s="11"/>
     </row>
-    <row r="162" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -14163,7 +14162,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -14195,7 +14194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -14264,7 +14263,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="166" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -14281,7 +14280,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="167" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -14319,7 +14318,7 @@
       <c r="AA167" s="12"/>
       <c r="AB167" s="12"/>
     </row>
-    <row r="168" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -14351,7 +14350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -14374,7 +14373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -14412,7 +14411,7 @@
       <c r="AA170" s="10"/>
       <c r="AB170" s="10"/>
     </row>
-    <row r="171" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -14452,7 +14451,7 @@
       <c r="AA171" s="11"/>
       <c r="AB171" s="11"/>
     </row>
-    <row r="172" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -14481,7 +14480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -14504,7 +14503,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="174" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -14530,7 +14529,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -14550,7 +14549,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="176" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -14570,7 +14569,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="177" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -14590,7 +14589,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="178" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -14610,7 +14609,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="179" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -14642,7 +14641,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="180" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -14659,7 +14658,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="181" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -14688,7 +14687,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="182" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -14711,7 +14710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -14749,7 +14748,7 @@
       <c r="AA183" s="12"/>
       <c r="AB183" s="12"/>
     </row>
-    <row r="184" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -14778,7 +14777,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="185" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -14798,7 +14797,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="186" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -14821,7 +14820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -14859,7 +14858,7 @@
       <c r="AA187" s="9"/>
       <c r="AB187" s="9"/>
     </row>
-    <row r="188" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -14888,7 +14887,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="189" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -14920,7 +14919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -14943,7 +14942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:28" s="33" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:28" s="33" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -14963,7 +14962,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="192" spans="1:28" s="33" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:28" s="33" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -14983,7 +14982,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="193" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -15003,7 +15002,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="194" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -15023,7 +15022,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="195" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -15046,7 +15045,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="196" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -15084,7 +15083,7 @@
       <c r="AA196" s="12"/>
       <c r="AB196" s="12"/>
     </row>
-    <row r="197" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -15153,7 +15152,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="199" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -15191,7 +15190,7 @@
       <c r="AA199" s="12"/>
       <c r="AB199" s="12"/>
     </row>
-    <row r="200" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -15214,7 +15213,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="201" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -15246,7 +15245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -15269,7 +15268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -15307,7 +15306,7 @@
       <c r="AA203" s="9"/>
       <c r="AB203" s="9"/>
     </row>
-    <row r="204" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -15324,7 +15323,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="205" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -15347,7 +15346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -15370,7 +15369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -15393,7 +15392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -15410,7 +15409,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="209" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -15430,7 +15429,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="210" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -15453,7 +15452,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="211" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -15470,7 +15469,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="212" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -15493,7 +15492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -15516,7 +15515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -15539,7 +15538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -15577,7 +15576,7 @@
       <c r="AA215" s="12"/>
       <c r="AB215" s="12"/>
     </row>
-    <row r="216" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -15617,7 +15616,7 @@
       <c r="AA216" s="9"/>
       <c r="AB216" s="9"/>
     </row>
-    <row r="217" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -15646,7 +15645,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="218" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
@@ -15675,7 +15674,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="219" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -15704,7 +15703,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="220" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -15733,7 +15732,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="221" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -15771,7 +15770,7 @@
       <c r="AA221" s="12"/>
       <c r="AB221" s="12"/>
     </row>
-    <row r="222" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -15803,7 +15802,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="223" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -15841,7 +15840,7 @@
       <c r="AA223" s="9"/>
       <c r="AB223" s="9"/>
     </row>
-    <row r="224" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -15870,7 +15869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -15893,7 +15892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
@@ -15907,7 +15906,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="227" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
@@ -15976,7 +15975,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="229" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
@@ -16014,7 +16013,7 @@
       <c r="AA229" s="12"/>
       <c r="AB229" s="12"/>
     </row>
-    <row r="230" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
@@ -16046,7 +16045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
@@ -16069,7 +16068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
@@ -16092,7 +16091,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="233" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -16124,7 +16123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
@@ -16147,7 +16146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
@@ -16185,7 +16184,7 @@
       <c r="AA235" s="10"/>
       <c r="AB235" s="10"/>
     </row>
-    <row r="236" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
@@ -16225,7 +16224,7 @@
       <c r="AA236" s="11"/>
       <c r="AB236" s="11"/>
     </row>
-    <row r="237" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
@@ -16263,7 +16262,7 @@
       <c r="AA237" s="9"/>
       <c r="AB237" s="9"/>
     </row>
-    <row r="238" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -16292,7 +16291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
@@ -16315,7 +16314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
@@ -16353,7 +16352,7 @@
       <c r="AA240" s="12"/>
       <c r="AB240" s="12"/>
     </row>
-    <row r="241" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
@@ -16391,7 +16390,7 @@
       <c r="AA241" s="9"/>
       <c r="AB241" s="9"/>
     </row>
-    <row r="242" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -16420,7 +16419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
@@ -16443,7 +16442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
@@ -16481,7 +16480,7 @@
       <c r="AA244" s="12"/>
       <c r="AB244" s="12"/>
     </row>
-    <row r="245" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
@@ -16519,7 +16518,7 @@
       <c r="AA245" s="9"/>
       <c r="AB245" s="9"/>
     </row>
-    <row r="246" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
@@ -16542,7 +16541,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="247" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
@@ -16565,7 +16564,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="248" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
@@ -16588,7 +16587,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="249" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
@@ -16611,7 +16610,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="250" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
@@ -16634,7 +16633,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="251" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
@@ -16672,7 +16671,7 @@
       <c r="AA251" s="12"/>
       <c r="AB251" s="12"/>
     </row>
-    <row r="252" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
@@ -16710,7 +16709,7 @@
       <c r="AA252" s="9"/>
       <c r="AB252" s="9"/>
     </row>
-    <row r="253" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
@@ -16733,7 +16732,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="254" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
@@ -16756,7 +16755,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="255" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
@@ -16779,7 +16778,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="256" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
@@ -16802,7 +16801,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="257" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
@@ -16825,7 +16824,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="258" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
@@ -16863,7 +16862,7 @@
       <c r="AA258" s="12"/>
       <c r="AB258" s="12"/>
     </row>
-    <row r="259" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
@@ -16899,7 +16898,7 @@
       <c r="AA259" s="9"/>
       <c r="AB259" s="9"/>
     </row>
-    <row r="260" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
@@ -16928,7 +16927,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="261" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>260</v>
       </c>
@@ -16957,7 +16956,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="262" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>261</v>
       </c>
@@ -16986,7 +16985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>262</v>
       </c>
@@ -17009,7 +17008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>263</v>
       </c>
@@ -17038,7 +17037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>264</v>
       </c>
@@ -17061,7 +17060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>265</v>
       </c>
@@ -17099,7 +17098,7 @@
       <c r="AA266" s="12"/>
       <c r="AB266" s="12"/>
     </row>
-    <row r="267" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
@@ -17128,7 +17127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="268" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>267</v>
       </c>
@@ -17197,7 +17196,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="270" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>269</v>
       </c>
@@ -17235,7 +17234,7 @@
       <c r="AA270" s="12"/>
       <c r="AB270" s="12"/>
     </row>
-    <row r="271" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>270</v>
       </c>
@@ -17267,7 +17266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>271</v>
       </c>
@@ -17290,7 +17289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>272</v>
       </c>
@@ -17328,7 +17327,7 @@
       <c r="AA273" s="10"/>
       <c r="AB273" s="10"/>
     </row>
-    <row r="274" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>273</v>
       </c>
@@ -17368,7 +17367,7 @@
       <c r="AA274" s="11"/>
       <c r="AB274" s="11"/>
     </row>
-    <row r="275" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>274</v>
       </c>
@@ -17400,7 +17399,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="276" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>275</v>
       </c>
@@ -17467,7 +17466,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="278" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>277</v>
       </c>
@@ -17505,7 +17504,7 @@
       <c r="AA278" s="12"/>
       <c r="AB278" s="12"/>
     </row>
-    <row r="279" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>278</v>
       </c>
@@ -17534,7 +17533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>279</v>
       </c>
@@ -17557,7 +17556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>280</v>
       </c>
@@ -17595,7 +17594,7 @@
       <c r="AA281" s="10"/>
       <c r="AB281" s="10"/>
     </row>
-    <row r="282" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>281</v>
       </c>
@@ -17635,7 +17634,7 @@
       <c r="AA282" s="11"/>
       <c r="AB282" s="11"/>
     </row>
-    <row r="283" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>282</v>
       </c>
@@ -17673,7 +17672,7 @@
       <c r="AA283" s="9"/>
       <c r="AB283" s="9"/>
     </row>
-    <row r="284" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>283</v>
       </c>
@@ -17702,7 +17701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>284</v>
       </c>
@@ -17725,7 +17724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>285</v>
       </c>
@@ -17751,7 +17750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>286</v>
       </c>
@@ -17791,7 +17790,7 @@
       <c r="AA287" s="9"/>
       <c r="AB287" s="9"/>
     </row>
-    <row r="288" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>287</v>
       </c>
@@ -17814,7 +17813,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="289" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>288</v>
       </c>
@@ -17837,7 +17836,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="290" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>289</v>
       </c>
@@ -17860,7 +17859,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="291" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>290</v>
       </c>
@@ -17883,7 +17882,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="292" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>291</v>
       </c>
@@ -17906,7 +17905,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="293" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>292</v>
       </c>
@@ -17944,7 +17943,7 @@
       <c r="AA293" s="12"/>
       <c r="AB293" s="12"/>
     </row>
-    <row r="294" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>293</v>
       </c>
@@ -17982,7 +17981,7 @@
       <c r="AA294" s="12"/>
       <c r="AB294" s="12"/>
     </row>
-    <row r="295" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>294</v>
       </c>
@@ -18005,7 +18004,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="296" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>295</v>
       </c>
@@ -18034,7 +18033,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="297" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>296</v>
       </c>
@@ -18057,7 +18056,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="298" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>297</v>
       </c>
@@ -18086,7 +18085,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="299" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>298</v>
       </c>
@@ -18109,7 +18108,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="300" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>299</v>
       </c>
@@ -18132,7 +18131,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="301" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>300</v>
       </c>
@@ -18201,7 +18200,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="303" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>302</v>
       </c>
@@ -18239,7 +18238,7 @@
       <c r="AA303" s="12"/>
       <c r="AB303" s="12"/>
     </row>
-    <row r="304" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>303</v>
       </c>
@@ -18268,7 +18267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>304</v>
       </c>
@@ -18291,7 +18290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>305</v>
       </c>
@@ -18320,7 +18319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>306</v>
       </c>
@@ -18343,7 +18342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>307</v>
       </c>
@@ -18381,7 +18380,7 @@
       <c r="AA308" s="10"/>
       <c r="AB308" s="10"/>
     </row>
-    <row r="309" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>308</v>
       </c>
@@ -18421,7 +18420,7 @@
       <c r="AA309" s="11"/>
       <c r="AB309" s="11"/>
     </row>
-    <row r="310" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>309</v>
       </c>
@@ -18459,7 +18458,7 @@
       <c r="AA310" s="9"/>
       <c r="AB310" s="9"/>
     </row>
-    <row r="311" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>310</v>
       </c>
@@ -18488,7 +18487,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="312" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>311</v>
       </c>
@@ -18511,7 +18510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>312</v>
       </c>
@@ -18549,7 +18548,7 @@
       <c r="AA313" s="12"/>
       <c r="AB313" s="12"/>
     </row>
-    <row r="314" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>313</v>
       </c>
@@ -18585,7 +18584,7 @@
       <c r="AA314" s="9"/>
       <c r="AB314" s="9"/>
     </row>
-    <row r="315" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>314</v>
       </c>
@@ -18614,7 +18613,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="316" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>315</v>
       </c>
@@ -18643,7 +18642,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="317" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>316</v>
       </c>
@@ -18672,7 +18671,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="318" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>317</v>
       </c>
@@ -18701,7 +18700,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="319" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>318</v>
       </c>
@@ -18730,7 +18729,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="320" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>319</v>
       </c>
@@ -18759,7 +18758,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="321" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>320</v>
       </c>
@@ -18788,7 +18787,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="322" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>321</v>
       </c>
@@ -18817,7 +18816,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="323" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>322</v>
       </c>
@@ -18843,7 +18842,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="324" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>323</v>
       </c>
@@ -18875,7 +18874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>324</v>
       </c>
@@ -18898,7 +18897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>325</v>
       </c>
@@ -18930,7 +18929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>326</v>
       </c>
@@ -18953,7 +18952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>327</v>
       </c>
@@ -18985,7 +18984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>328</v>
       </c>
@@ -19008,7 +19007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>329</v>
       </c>
@@ -19040,7 +19039,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="331" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>330</v>
       </c>
@@ -19078,7 +19077,7 @@
       <c r="AA331" s="12"/>
       <c r="AB331" s="12"/>
     </row>
-    <row r="332" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>331</v>
       </c>
@@ -19107,7 +19106,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="333" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>332</v>
       </c>
@@ -19176,7 +19175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="335" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>334</v>
       </c>
@@ -19199,7 +19198,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="336" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>335</v>
       </c>
@@ -19237,7 +19236,7 @@
       <c r="AA336" s="12"/>
       <c r="AB336" s="12"/>
     </row>
-    <row r="337" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>336</v>
       </c>
@@ -19275,7 +19274,7 @@
       <c r="AA337" s="10"/>
       <c r="AB337" s="10"/>
     </row>
-    <row r="338" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>337</v>
       </c>
@@ -19315,7 +19314,7 @@
       <c r="AA338" s="11"/>
       <c r="AB338" s="11"/>
     </row>
-    <row r="339" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>338</v>
       </c>
@@ -19353,7 +19352,7 @@
       <c r="AA339" s="9"/>
       <c r="AB339" s="9"/>
     </row>
-    <row r="340" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>339</v>
       </c>
@@ -19382,7 +19381,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="341" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>340</v>
       </c>
@@ -19405,7 +19404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>341</v>
       </c>
@@ -19434,7 +19433,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="343" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>342</v>
       </c>
@@ -19448,7 +19447,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="344" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>343</v>
       </c>
@@ -19486,7 +19485,7 @@
       <c r="AA344" s="9"/>
       <c r="AB344" s="9"/>
     </row>
-    <row r="345" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>344</v>
       </c>
@@ -19515,7 +19514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>345</v>
       </c>
@@ -19538,7 +19537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>346</v>
       </c>
@@ -19561,7 +19560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>347</v>
       </c>
@@ -19584,7 +19583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>348</v>
       </c>
@@ -19622,7 +19621,7 @@
       <c r="AA349" s="12"/>
       <c r="AB349" s="12"/>
     </row>
-    <row r="350" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>349</v>
       </c>
@@ -19662,7 +19661,7 @@
       <c r="AA350" s="9"/>
       <c r="AB350" s="9"/>
     </row>
-    <row r="351" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>350</v>
       </c>
@@ -19694,7 +19693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>351</v>
       </c>
@@ -19717,7 +19716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>352</v>
       </c>
@@ -19755,7 +19754,7 @@
       <c r="AA353" s="12"/>
       <c r="AB353" s="12"/>
     </row>
-    <row r="354" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>353</v>
       </c>
@@ -19793,7 +19792,7 @@
       <c r="AA354" s="9"/>
       <c r="AB354" s="9"/>
     </row>
-    <row r="355" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>354</v>
       </c>
@@ -19822,7 +19821,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="356" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>355</v>
       </c>
@@ -19851,7 +19850,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="357" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>356</v>
       </c>
@@ -19880,7 +19879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>357</v>
       </c>
@@ -19903,7 +19902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>358</v>
       </c>
@@ -19941,7 +19940,7 @@
       <c r="AA359" s="12"/>
       <c r="AB359" s="12"/>
     </row>
-    <row r="360" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>359</v>
       </c>
@@ -19979,7 +19978,7 @@
       <c r="AA360" s="10"/>
       <c r="AB360" s="10"/>
     </row>
-    <row r="361" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>360</v>
       </c>
@@ -20019,7 +20018,7 @@
       <c r="AA361" s="11"/>
       <c r="AB361" s="11"/>
     </row>
-    <row r="362" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>361</v>
       </c>
@@ -20057,7 +20056,7 @@
       <c r="AA362" s="9"/>
       <c r="AB362" s="9"/>
     </row>
-    <row r="363" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>362</v>
       </c>
@@ -20086,7 +20085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>363</v>
       </c>
@@ -20109,7 +20108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>364</v>
       </c>
@@ -20135,7 +20134,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="366" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>365</v>
       </c>
@@ -20173,7 +20172,7 @@
       <c r="AA366" s="12"/>
       <c r="AB366" s="12"/>
     </row>
-    <row r="367" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>366</v>
       </c>
@@ -20205,7 +20204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>367</v>
       </c>
@@ -20228,7 +20227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>368</v>
       </c>
@@ -20266,7 +20265,7 @@
       <c r="AA369" s="10"/>
       <c r="AB369" s="10"/>
     </row>
-    <row r="370" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>369</v>
       </c>
@@ -20306,7 +20305,7 @@
       <c r="AA370" s="11"/>
       <c r="AB370" s="11"/>
     </row>
-    <row r="371" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>370</v>
       </c>
@@ -20342,7 +20341,7 @@
       <c r="AA371" s="9"/>
       <c r="AB371" s="9"/>
     </row>
-    <row r="372" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>371</v>
       </c>
@@ -20371,7 +20370,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="373" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>372</v>
       </c>
@@ -20400,7 +20399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>373</v>
       </c>
@@ -20423,7 +20422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>374</v>
       </c>
@@ -20461,7 +20460,7 @@
       <c r="AA375" s="12"/>
       <c r="AB375" s="12"/>
     </row>
-    <row r="376" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>375</v>
       </c>
@@ -20499,7 +20498,7 @@
       <c r="AA376" s="10"/>
       <c r="AB376" s="10"/>
     </row>
-    <row r="377" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>376</v>
       </c>
@@ -20539,7 +20538,7 @@
       <c r="AA377" s="11"/>
       <c r="AB377" s="11"/>
     </row>
-    <row r="378" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>377</v>
       </c>
@@ -20577,7 +20576,7 @@
       <c r="AA378" s="9"/>
       <c r="AB378" s="9"/>
     </row>
-    <row r="379" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>378</v>
       </c>
@@ -20606,7 +20605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>379</v>
       </c>
@@ -20629,7 +20628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>380</v>
       </c>
@@ -20667,7 +20666,7 @@
       <c r="AA381" s="12"/>
       <c r="AB381" s="12"/>
     </row>
-    <row r="382" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>381</v>
       </c>
@@ -20705,7 +20704,7 @@
       <c r="AA382" s="9"/>
       <c r="AB382" s="9"/>
     </row>
-    <row r="383" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>382</v>
       </c>
@@ -20734,7 +20733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>383</v>
       </c>
@@ -20757,7 +20756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>384</v>
       </c>
@@ -20795,7 +20794,7 @@
       <c r="AA385" s="12"/>
       <c r="AB385" s="12"/>
     </row>
-    <row r="386" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>385</v>
       </c>
@@ -20827,7 +20826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>386</v>
       </c>
@@ -20850,7 +20849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>387</v>
       </c>
@@ -20879,7 +20878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>388</v>
       </c>
@@ -20902,7 +20901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>389</v>
       </c>
@@ -20931,7 +20930,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="391" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>390</v>
       </c>
@@ -20954,7 +20953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>391</v>
       </c>
@@ -20986,7 +20985,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="393" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>392</v>
       </c>
@@ -21009,7 +21008,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="394" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>393</v>
       </c>
@@ -21032,7 +21031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>394</v>
       </c>
@@ -21055,7 +21054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>395</v>
       </c>
@@ -21084,7 +21083,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="397" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>396</v>
       </c>
@@ -21107,7 +21106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>397</v>
       </c>
@@ -21136,7 +21135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>398</v>
       </c>
@@ -21159,7 +21158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>399</v>
       </c>
@@ -21197,7 +21196,7 @@
       <c r="AA400" s="10"/>
       <c r="AB400" s="10"/>
     </row>
-    <row r="401" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>400</v>
       </c>
@@ -21235,7 +21234,7 @@
       <c r="AA401" s="11"/>
       <c r="AB401" s="11"/>
     </row>
-    <row r="402" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>401</v>
       </c>
@@ -21258,7 +21257,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="403" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>402</v>
       </c>
@@ -21281,7 +21280,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="404" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>403</v>
       </c>
@@ -21304,7 +21303,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="405" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>404</v>
       </c>
@@ -21327,7 +21326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>405</v>
       </c>
@@ -21353,7 +21352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>406</v>
       </c>
@@ -21391,7 +21390,7 @@
       <c r="AA407" s="10"/>
       <c r="AB407" s="10"/>
     </row>
-    <row r="408" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>407</v>
       </c>
@@ -21408,7 +21407,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="409" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>408</v>
       </c>
@@ -21446,7 +21445,7 @@
       <c r="AA409" s="10"/>
       <c r="AB409" s="10"/>
     </row>
-    <row r="410" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>409</v>
       </c>
@@ -21486,7 +21485,7 @@
       <c r="AA410" s="11"/>
       <c r="AB410" s="11"/>
     </row>
-    <row r="411" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>410</v>
       </c>
@@ -21524,7 +21523,7 @@
       <c r="AA411" s="9"/>
       <c r="AB411" s="9"/>
     </row>
-    <row r="412" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>411</v>
       </c>
@@ -21553,7 +21552,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="413" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>412</v>
       </c>
@@ -21582,7 +21581,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="414" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>413</v>
       </c>
@@ -21611,7 +21610,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="415" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>414</v>
       </c>
@@ -21640,7 +21639,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="416" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>415</v>
       </c>
@@ -21669,7 +21668,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="417" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>416</v>
       </c>
@@ -21698,7 +21697,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="418" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>417</v>
       </c>
@@ -21736,7 +21735,7 @@
       <c r="AA418" s="12"/>
       <c r="AB418" s="12"/>
     </row>
-    <row r="419" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>418</v>
       </c>
@@ -21774,7 +21773,7 @@
       <c r="AA419" s="9"/>
       <c r="AB419" s="9"/>
     </row>
-    <row r="420" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>419</v>
       </c>
@@ -21797,7 +21796,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="421" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>420</v>
       </c>
@@ -21835,7 +21834,7 @@
       <c r="AA421" s="12"/>
       <c r="AB421" s="12"/>
     </row>
-    <row r="422" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>421</v>
       </c>
@@ -21852,7 +21851,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="423" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>422</v>
       </c>
@@ -21890,7 +21889,7 @@
       <c r="AA423" s="10"/>
       <c r="AB423" s="10"/>
     </row>
-    <row r="424" spans="1:28" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>423</v>
       </c>
@@ -21929,13 +21928,7 @@
       <c r="AB424" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB424" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="select_one time"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AB424" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
